--- a/biology/Médecine/Sotíris_Tsiódras/Sotíris_Tsiódras.xlsx
+++ b/biology/Médecine/Sotíris_Tsiódras/Sotíris_Tsiódras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sot%C3%ADris_Tsi%C3%B3dras</t>
+          <t>Sotíris_Tsiódras</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sotírios « Sotíris » Tsiódras (grec moderne : Σωτήριος «Σωτήρης» Τσιόδρας, né le 13 octobre 1965) est un médecin grec né en Australie, spécialisé dans l'infectiologie (maladies infectieuses), chargé de la gestion de la crise du coronavirus SRAS-CoV-2 en Grèce.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sot%C3%ADris_Tsi%C3%B3dras</t>
+          <t>Sotíris_Tsiódras</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Petite enfance et éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tsiódras estné le 13 octobre 1965 à Sydney, en Australie, dans une famille d'immigrants originaire de Neochóri, en Argolide[1]. Après le retour de la famille en Grèce, il s'est inscrit à la faculté de médecine d'Ioannina, puis a été transféré à l'université d’Athènes, où il a obtenu son diplôme de pathologiste en mars 1991[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tsiódras estné le 13 octobre 1965 à Sydney, en Australie, dans une famille d'immigrants originaire de Neochóri, en Argolide. Après le retour de la famille en Grèce, il s'est inscrit à la faculté de médecine d'Ioannina, puis a été transféré à l'université d’Athènes, où il a obtenu son diplôme de pathologiste en mars 1991.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sot%C3%ADris_Tsi%C3%B3dras</t>
+          <t>Sotíris_Tsiódras</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Carrière médicale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1993, Tsiódras a été affecté à l'hôpital militaire général 401 d'Athènes où il a servi pendant un an. Au cours des années 1994–1997, il a travaillé comme spécialiste en médecine interne spécialisé en pathologie au Einstein Medical Center de Philadelphie aux États-Unis. De 1997 à 2001, il s'est inscrit aux programmes de lutte contre les maladies infectieuses au Beth Israel Deaconess Medical Center et à la Harvard Medical School. Entre 1998 et 2001, il a travaillé comme chercheur à la Harvard Medical School, oùil a obtenu une maîtrise en sciences médicales en juin 2001[3].
-En 2003, il a soutenu cum laude sa thèse de doctorat à la faculté de médecine de l’Université nationale et capodistrienne d'Athènes[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1993, Tsiódras a été affecté à l'hôpital militaire général 401 d'Athènes où il a servi pendant un an. Au cours des années 1994–1997, il a travaillé comme spécialiste en médecine interne spécialisé en pathologie au Einstein Medical Center de Philadelphie aux États-Unis. De 1997 à 2001, il s'est inscrit aux programmes de lutte contre les maladies infectieuses au Beth Israel Deaconess Medical Center et à la Harvard Medical School. Entre 1998 et 2001, il a travaillé comme chercheur à la Harvard Medical School, oùil a obtenu une maîtrise en sciences médicales en juin 2001.
+En 2003, il a soutenu cum laude sa thèse de doctorat à la faculté de médecine de l’Université nationale et capodistrienne d'Athènes.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sot%C3%ADris_Tsi%C3%B3dras</t>
+          <t>Sotíris_Tsiódras</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Pandémie de Covid-19 en Grèce</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2020, le gouvernement a nommé un groupe d'experts pour coordonner la gestion de la pandémie de SRAS-CoV-2 en Grèce[5]. Tsiódras a été nommé chef de l'équipe ainsi que liaison de communication avec le gouvernement pendant la crise sanitaire du Covid-19[6],[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2020, le gouvernement a nommé un groupe d'experts pour coordonner la gestion de la pandémie de SRAS-CoV-2 en Grèce. Tsiódras a été nommé chef de l'équipe ainsi que liaison de communication avec le gouvernement pendant la crise sanitaire du Covid-19,.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sot%C3%ADris_Tsi%C3%B3dras</t>
+          <t>Sotíris_Tsiódras</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Couverture médiatique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Figaro a affirmé que Tsiódras était le « nouveau bien-aimé des Grecs »[8]. Dans l'article, Le Figaro affirme qu'il a demandé au Premier ministre Kyriakos Mitsotakis des mesures strictes de verrouillage dès que les premiers cas ont été signalés en Italie. Le sociologue grec Andreas Drymiotis a écrit : « Les Grecs apprécient particulièrement son calme, ses connaissances en la matière, son profond respect pour toutes les victimes et le fait qu'il a un dévouement total envers le personnel infirmier[9]. » De plus, la journaliste Matina Stevis-Gridneff, du New York Times, l'a décrit comme l'un des « héros de l'ère du coronavirus »[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Figaro a affirmé que Tsiódras était le « nouveau bien-aimé des Grecs ». Dans l'article, Le Figaro affirme qu'il a demandé au Premier ministre Kyriakos Mitsotakis des mesures strictes de verrouillage dès que les premiers cas ont été signalés en Italie. Le sociologue grec Andreas Drymiotis a écrit : « Les Grecs apprécient particulièrement son calme, ses connaissances en la matière, son profond respect pour toutes les victimes et le fait qu'il a un dévouement total envers le personnel infirmier. » De plus, la journaliste Matina Stevis-Gridneff, du New York Times, l'a décrit comme l'un des « héros de l'ère du coronavirus ».
 Aux États-Unis, la NPR (National Public Radio) a mentionné Tsiódras le 4 ou le 5 mai 2020 et a noté que des citoyens grecs avaient écrit des chansons le louant[réf. nécessaire].
 </t>
         </is>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sot%C3%ADris_Tsi%C3%B3dras</t>
+          <t>Sotíris_Tsiódras</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,9 +657,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tsiódras est un chrétien orthodoxe pratiquant, un aficionado de l' hymnologie byzantine et un membre de la chorale de son église locale. Il a sept enfants[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tsiódras est un chrétien orthodoxe pratiquant, un aficionado de l' hymnologie byzantine et un membre de la chorale de son église locale. Il a sept enfants.
 Dans sa thèse de doctorat de 2003, Tsiódras a utilisé son nom officiel Sotírios en grec et en anglais. Il a également mentionné son épouse Mina, leurs quatre premiers enfants et ses parents en remerciements.
 </t>
         </is>
